--- a/xlsx/NFL_intext.xlsx
+++ b/xlsx/NFL_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>NFL</t>
   </si>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84</t>
   </si>
   <si>
-    <t>紐約</t>
+    <t>纽约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0%E7%88%B1%E5%9B%BD%E8%80%85</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%81%A3%E5%8C%85%E8%A3%9D%E5%B7%A5</t>
   </si>
   <si>
-    <t>綠灣包裝工</t>
+    <t>绿湾包装工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Telemundo</t>
@@ -71,31 +71,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E6%9C%83</t>
   </si>
   <si>
-    <t>美國美式足球聯會</t>
+    <t>美国美式足球联会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E6%9C%83</t>
   </si>
   <si>
-    <t>國家美式足球聯會</t>
+    <t>国家美式足球联会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%9B%83</t>
   </si>
   <si>
-    <t>超級盃</t>
+    <t>超级杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%9B%83</t>
   </si>
   <si>
-    <t>職業盃</t>
+    <t>职业杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
@@ -107,13 +104,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%A5%B4%E9%AD%AF%E9%AD%AF</t>
   </si>
   <si>
-    <t>火奴魯魯</t>
+    <t>火奴鲁鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9B%9B%E5%A4%A7%E8%81%B7%E6%A5%AD%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>北美四大職業運動</t>
+    <t>北美四大职业运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%89%9B%E5%9F%8E%E6%AF%94%E5%B0%94</t>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E6%B5%B7%E8%B1%9A</t>
   </si>
   <si>
-    <t>邁阿密海豚</t>
+    <t>迈阿密海豚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%96%B7%E6%B1%BD%E6%9C%BA</t>
@@ -179,13 +176,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%8E%E9%A6%AC</t>
   </si>
   <si>
-    <t>丹佛野馬</t>
+    <t>丹佛野马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>堪薩斯城酋長</t>
+    <t>堪萨斯城酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%85%8B%E5%85%B0%E8%A2%AD%E5%87%BB%E8%80%85</t>
@@ -203,19 +200,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E7%89%9B%E4%BB%94</t>
   </si>
   <si>
-    <t>達拉斯牛仔</t>
+    <t>达拉斯牛仔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約巨人</t>
+    <t>纽约巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%80%81%E9%B7%B9</t>
   </si>
   <si>
-    <t>費城老鷹</t>
+    <t>费城老鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%BA%A2%E7%9A%AE</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>明尼蘇達維京人</t>
+    <t>明尼苏达维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E7%8D%B5%E9%B7%B9</t>
   </si>
   <si>
-    <t>亞特蘭大獵鷹</t>
+    <t>亚特兰大猎鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BD%97%E6%9D%A5%E9%82%A3%E9%BB%91%E8%B1%B9</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF%E8%81%96%E5%BE%92</t>
   </si>
   <si>
-    <t>紐奧良聖徒</t>
+    <t>纽奥良圣徒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E6%B9%BE%E6%B5%B7%E7%9B%97</t>
@@ -293,25 +290,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B5%B7%E9%B7%B9</t>
   </si>
   <si>
-    <t>西雅圖海鷹</t>
+    <t>西雅图海鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%B1%83%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國家籃球協會</t>
+    <t>国家篮球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%86%B0%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家冰球聯盟</t>
+    <t>国家冰球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>加拿大式足球聯盟</t>
+    <t>加拿大式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E5%9C%BA</t>
@@ -341,19 +338,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA</t>
   </si>
   <si>
-    <t>密爾瓦基</t>
+    <t>密尔瓦基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%81%A3_(%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E)</t>
   </si>
   <si>
-    <t>綠灣 (威斯康辛州)</t>
+    <t>绿湾 (威斯康辛州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E9%81%8B%E5%8B%95%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>職業運動聯盟</t>
+    <t>职业运动联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -383,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86</t>
   </si>
   <si>
-    <t>邁阿密</t>
+    <t>迈阿密</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%88%97%E4%BD%93%E8%82%B2%E5%9C%BA</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E5%A0%A1</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%99%B4%E5%B0%84%E6%A9%9F</t>
   </si>
   <si>
-    <t>紐約噴射機</t>
+    <t>纽约喷射机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MetLife_Stadium</t>
@@ -425,19 +422,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%9B%A7%E7%91%9F%E7%A6%8F</t>
   </si>
   <si>
-    <t>東盧瑟福</t>
+    <t>东卢瑟福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%BE%B7%E5%B7%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>休士頓德州人</t>
+    <t>休士顿德州人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NRG_Stadium</t>
@@ -449,37 +446,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E6%96%AF%E9%A0%93</t>
   </si>
   <si>
-    <t>休斯頓</t>
+    <t>休斯顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF%E5%B0%8F%E9%A6%AC</t>
   </si>
   <si>
-    <t>印第安納波利斯小馬</t>
+    <t>印第安纳波利斯小马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%8D%A1%E6%96%AF%E7%9F%B3%E6%B2%B9%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>魯卡斯石油體育場</t>
+    <t>鲁卡斯石油体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>印第安納州</t>
+    <t>印第安纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/EverBank_Field</t>
@@ -503,19 +500,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>日產體育場</t>
+    <t>日产体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E4%BB%80%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>納什維爾</t>
+    <t>纳什维尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sports_Authority_Field_at_Mile_High</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B</t>
@@ -545,13 +542,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>堪薩斯</t>
+    <t>堪萨斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%9F%B6%E9%97%AA%E7%94%B5</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%A3%AE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -587,13 +584,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E9%98%BF%E6%8B%89%E7%B1%B3%E9%81%94%E7%AB%B6%E6%8A%80%E5%A0%B4</t>
   </si>
   <si>
-    <t>奧克蘭阿拉米達競技場</t>
+    <t>奥克兰阿拉米达竞技场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>奧克蘭</t>
+    <t>奥克兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/M%26T_Bank_Stadium</t>
@@ -605,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paul_Brown_Stadium</t>
@@ -635,9 +632,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E5%B8%83%E6%9C%97</t>
   </si>
   <si>
-    <t>克里夫蘭布朗</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/FirstEnergy_Stadium_(Cleveland)</t>
   </si>
   <si>
@@ -647,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD</t>
   </si>
   <si>
-    <t>克里夫蘭</t>
+    <t>克里夫兰</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Heinz_Field</t>
@@ -659,25 +653,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%B9%E8%8C%B2%E5%A0%A1</t>
   </si>
   <si>
-    <t>匹茲堡</t>
+    <t>匹兹堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>AT&amp;T體育場</t>
+    <t>AT&amp;T体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93</t>
   </si>
   <si>
-    <t>阿靈頓</t>
+    <t>阿灵顿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lincoln_Financial_Field</t>
@@ -689,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B4%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>華盛頓紅人</t>
+    <t>华盛顿红人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/FedExField</t>
@@ -713,19 +707,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%AB%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士體育場</t>
+    <t>梅赛德斯-宾士体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E9%BB%91%E8%B1%B9</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅萊納州</t>
+    <t>北卡罗莱纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%AB%E8%B6%85%E7%B4%9A%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士超級巨蛋</t>
+    <t>梅赛德斯-宾士超级巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E5%A8%9C%E5%B7%9E</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF</t>
   </si>
   <si>
-    <t>紐奧良</t>
+    <t>纽奥良</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Raymond_James_Stadium</t>
@@ -785,37 +779,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E%E5%A4%A7%E5%AD%B8%E9%AB%94%E8%82%B2%E9%A4%A8</t>
   </si>
   <si>
-    <t>鳳凰城大學體育館</t>
+    <t>凤凰城大学体育馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E</t>
   </si>
   <si>
-    <t>鳳凰城</t>
+    <t>凤凰城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E7%B4%80%E5%BF%B5%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>洛杉磯紀念體育場</t>
+    <t>洛杉矶纪念体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B149%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山49人</t>
+    <t>旧金山49人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Levi%27s_Stadium</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/CenturyLink_Field</t>
@@ -839,13 +833,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%BA%E7%90%83%E5%9C%BA</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾州</t>
+    <t>伊利诺州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -869,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>福特球場</t>
+    <t>福特球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%B7%9E</t>
@@ -893,19 +887,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%88%E7%9C%BE%E9%8A%80%E8%A1%8C%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>美國合眾銀行體育場</t>
+    <t>美国合众银行体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E4%BA%9E%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>明尼亞波利斯</t>
+    <t>明尼亚波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%AF%94</t>
@@ -941,19 +935,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>哥倫比亞廣播公司</t>
+    <t>哥伦比亚广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E6%96%AF%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>福克斯廣播公司</t>
+    <t>福克斯广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家廣播公司</t>
+    <t>国家广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ESPN</t>
@@ -995,25 +989,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E5%A5%91%E7%B4%84%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>共同契約協議</t>
+    <t>共同契约协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%C2%B7%E5%82%91%E5%85%8B%E6%A3%AE</t>
   </si>
   <si>
-    <t>波·傑克森</t>
+    <t>波·杰克森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E7%AA%81%E8%A5%B2%E8%80%85</t>
   </si>
   <si>
-    <t>洛杉磯突襲者</t>
+    <t>洛杉矶突袭者</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Herschel_Walker</t>
@@ -1049,37 +1043,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%C2%B7%E5%82%91%E5%8F%AF%E6%A3%AE</t>
   </si>
   <si>
-    <t>波·傑可森</t>
+    <t>波·杰可森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%90%83%E5%93%A1</t>
   </si>
   <si>
-    <t>自由球員</t>
+    <t>自由球员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>橄欖球</t>
+    <t>橄榄球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81</t>
   </si>
   <si>
-    <t>蒙特婁</t>
+    <t>蒙特娄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%90%89%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>麥吉爾大學</t>
+    <t>麦吉尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B</t>
@@ -1091,19 +1085,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E9%A0%93</t>
   </si>
   <si>
-    <t>坎頓</t>
+    <t>坎顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E5%85%AC%E7%BE%8A</t>
   </si>
   <si>
-    <t>克里夫蘭公羊</t>
+    <t>克里夫兰公羊</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/All-America_Football_Conference</t>
@@ -1115,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9%E5%B0%8F%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴爾的摩小馬</t>
+    <t>巴尔的摩小马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%92%E7%90%83</t>
@@ -1133,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E4%BA%BA%EF%BC%88AFL%EF%BC%89</t>
   </si>
   <si>
-    <t>達拉斯德克薩斯人（AFL）</t>
+    <t>达拉斯德克萨斯人（AFL）</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monday_Night_Football</t>
@@ -1151,25 +1145,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E4%B8%96%E7%95%8C%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美式足球世界聯盟</t>
+    <t>美式足球世界联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲美式足球聯盟</t>
+    <t>欧洲美式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B8%82</t>
@@ -1187,37 +1181,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓州大學</t>
+    <t>宾州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E9%BB%91%E4%BA%BA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳統黑人大學</t>
+    <t>传统黑人大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%B8%83%E6%9E%97%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>格蘭布林州立大學</t>
+    <t>格兰布林州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93</t>
   </si>
   <si>
-    <t>聖路易</t>
+    <t>圣路易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%A6%A7%E5%B9%B4</t>
@@ -1235,7 +1229,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E7%B6%AD%E5%8A%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>拉斯維加斯</t>
+    <t>拉斯维加斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Las_Vegas_Stadium</t>
@@ -1247,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%9B%9B%E4%B9%9D%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山四九人</t>
+    <t>旧金山四九人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Canton_Bulldogs</t>
@@ -1259,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%88%BE%E5%BA%B7%E6%99%AE%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>亞爾康普羅斯</t>
+    <t>亚尔康普罗斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cleveland_Bulldogs</t>
@@ -1271,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E9%BB%83%E5%A4%BE%E5%85%8B</t>
   </si>
   <si>
-    <t>法蘭克福黃夾克</t>
+    <t>法兰克福黄夹克</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Providence_Steam_Roller</t>
@@ -1289,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%95%86%E8%97%9D%E9%9B%BB</t>
   </si>
   <si>
-    <t>美商藝電</t>
+    <t>美商艺电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Madden_NFL</t>
@@ -1355,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%A1%94%E9%87%8C%E5%B8%83</t>
   </si>
   <si>
-    <t>保羅·塔里布</t>
+    <t>保罗·塔里布</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Roger_Goodell</t>
@@ -1373,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%8C%E8%99%9F</t>
   </si>
   <si>
-    <t>背號</t>
+    <t>背号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Grandfather_clause</t>
@@ -1385,19 +1379,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南加州大學</t>
+    <t>南加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯合報</t>
+    <t>联合报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%BC%8F%E8%B6%B3%E7%90%83</t>
@@ -1415,13 +1409,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>聯盟式橄欖球</t>
+    <t>联盟式橄榄球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83</t>
   </si>
   <si>
-    <t>聯合式橄欖球</t>
+    <t>联合式橄榄球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD%E6%A0%BC</t>
@@ -1463,13 +1457,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%9B%83%E6%9C%80%E6%9C%89%E5%83%B9%E5%80%BC%E7%90%83%E5%93%A1</t>
   </si>
   <si>
-    <t>超級盃最有價值球員</t>
+    <t>超级杯最有价值球员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B3%E6%99%82%E9%87%8D%E6%92%AD</t>
   </si>
   <si>
-    <t>即時重播</t>
+    <t>即时重播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL%E5%AD%A3%E5%90%8E%E8%B5%9B</t>
@@ -1511,21 +1505,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%8E%E9%A9%AC</t>
   </si>
   <si>
-    <t>丹佛野马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86%E6%B5%B7%E8%B1%9A</t>
   </si>
   <si>
-    <t>迈阿密海豚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E6%B3%A2%E5%88%A9%E6%96%AF%E5%B0%8F%E9%A9%AC</t>
   </si>
   <si>
-    <t>印第安纳波利斯小马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94%E7%BE%8E%E6%B4%B2%E8%99%8E</t>
   </si>
   <si>
@@ -1547,61 +1532,46 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF%E7%89%9B%E4%BB%94</t>
   </si>
   <si>
-    <t>达拉斯牛仔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>纽约巨人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E%E8%80%81%E9%B9%B0</t>
   </si>
   <si>
-    <t>费城老鹰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E6%B9%BE%E5%8C%85%E8%A3%85%E5%B7%A5</t>
   </si>
   <si>
-    <t>绿湾包装工</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE%E6%B5%B7%E9%B9%B0</t>
   </si>
   <si>
-    <t>西雅图海鹰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E8%81%B7%E6%A5%AD%E9%AB%94%E8%82%B2%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>北美職業體育聯賽</t>
+    <t>北美职业体育联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%8A%A0%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>加拿大加式足球聯盟</t>
+    <t>加拿大加式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E6%A3%92%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業棒球大聯盟</t>
+    <t>美国职业棒球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A5%AD%E8%B6%B3%E7%90%83%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職業足球大聯盟</t>
+    <t>美国职业足球大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1619,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2237,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -2263,10 +2233,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -2292,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>4</v>
@@ -2321,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>20</v>
@@ -2350,10 +2320,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -2379,10 +2349,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2408,10 +2378,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2437,10 +2407,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2466,10 +2436,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
@@ -2495,10 +2465,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
@@ -2553,10 +2523,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
@@ -2582,10 +2552,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>7</v>
@@ -2611,10 +2581,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -2640,10 +2610,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
@@ -2669,10 +2639,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2698,10 +2668,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -2727,10 +2697,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>7</v>
@@ -2756,10 +2726,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2785,10 +2755,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -2814,10 +2784,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -2843,10 +2813,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2872,10 +2842,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2901,10 +2871,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>10</v>
@@ -2930,10 +2900,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>6</v>
@@ -2959,10 +2929,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -2988,10 +2958,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3017,10 +2987,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>7</v>
@@ -3046,10 +3016,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -3104,10 +3074,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -3133,10 +3103,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -3162,10 +3132,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -3191,10 +3161,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>4</v>
@@ -3220,10 +3190,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -3249,10 +3219,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -3278,10 +3248,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>
@@ -3307,10 +3277,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>10</v>
@@ -3336,10 +3306,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3365,10 +3335,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -3394,10 +3364,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -3423,10 +3393,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -3452,10 +3422,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -3481,10 +3451,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>8</v>
@@ -3510,10 +3480,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3539,10 +3509,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>9</v>
@@ -3568,10 +3538,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3597,10 +3567,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3626,10 +3596,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>7</v>
@@ -3655,10 +3625,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" t="s">
         <v>61</v>
-      </c>
-      <c r="F58" t="s">
-        <v>62</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -3684,10 +3654,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
         <v>111</v>
-      </c>
-      <c r="F59" t="s">
-        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3713,10 +3683,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
         <v>113</v>
-      </c>
-      <c r="F60" t="s">
-        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -3742,10 +3712,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" t="s">
         <v>33</v>
-      </c>
-      <c r="F61" t="s">
-        <v>34</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3771,10 +3741,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3800,10 +3770,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -3829,10 +3799,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
         <v>35</v>
-      </c>
-      <c r="F64" t="s">
-        <v>36</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3858,10 +3828,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" t="s">
         <v>119</v>
-      </c>
-      <c r="F65" t="s">
-        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3887,10 +3857,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" t="s">
         <v>121</v>
-      </c>
-      <c r="F66" t="s">
-        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3916,10 +3886,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" t="s">
         <v>123</v>
-      </c>
-      <c r="F67" t="s">
-        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -3945,10 +3915,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" t="s">
         <v>125</v>
-      </c>
-      <c r="F68" t="s">
-        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3974,10 +3944,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" t="s">
         <v>127</v>
-      </c>
-      <c r="F69" t="s">
-        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4003,10 +3973,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>128</v>
+      </c>
+      <c r="F70" t="s">
         <v>129</v>
-      </c>
-      <c r="F70" t="s">
-        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4032,10 +4002,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
         <v>131</v>
-      </c>
-      <c r="F71" t="s">
-        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -4061,10 +4031,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F72" t="s">
         <v>133</v>
-      </c>
-      <c r="F72" t="s">
-        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -4090,10 +4060,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>134</v>
+      </c>
+      <c r="F73" t="s">
         <v>135</v>
-      </c>
-      <c r="F73" t="s">
-        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4119,10 +4089,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74" t="s">
         <v>137</v>
-      </c>
-      <c r="F74" t="s">
-        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4148,10 +4118,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>138</v>
+      </c>
+      <c r="F75" t="s">
         <v>139</v>
-      </c>
-      <c r="F75" t="s">
-        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4177,10 +4147,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>140</v>
+      </c>
+      <c r="F76" t="s">
         <v>141</v>
-      </c>
-      <c r="F76" t="s">
-        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4206,10 +4176,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4235,10 +4205,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>4</v>
@@ -4264,10 +4234,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4293,10 +4263,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" t="s">
         <v>149</v>
-      </c>
-      <c r="F80" t="s">
-        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4322,10 +4292,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
         <v>151</v>
-      </c>
-      <c r="F81" t="s">
-        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4351,10 +4321,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
         <v>153</v>
-      </c>
-      <c r="F82" t="s">
-        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -4380,10 +4350,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
         <v>83</v>
-      </c>
-      <c r="F83" t="s">
-        <v>84</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4409,10 +4379,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4438,10 +4408,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4467,10 +4437,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4496,10 +4466,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4525,10 +4495,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
         <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4554,10 +4524,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4583,10 +4553,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" t="s">
         <v>53</v>
-      </c>
-      <c r="F90" t="s">
-        <v>54</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -4612,10 +4582,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F91" t="s">
         <v>167</v>
-      </c>
-      <c r="F91" t="s">
-        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4641,10 +4611,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" t="s">
         <v>169</v>
-      </c>
-      <c r="F92" t="s">
-        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4670,10 +4640,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
         <v>171</v>
-      </c>
-      <c r="F93" t="s">
-        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>6</v>
@@ -4699,10 +4669,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" t="s">
         <v>55</v>
-      </c>
-      <c r="F94" t="s">
-        <v>56</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -4728,10 +4698,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" t="s">
         <v>173</v>
-      </c>
-      <c r="F95" t="s">
-        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4757,10 +4727,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>174</v>
+      </c>
+      <c r="F96" t="s">
         <v>175</v>
-      </c>
-      <c r="F96" t="s">
-        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4786,10 +4756,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" t="s">
         <v>177</v>
-      </c>
-      <c r="F97" t="s">
-        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>7</v>
@@ -4815,10 +4785,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" t="s">
         <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4844,10 +4814,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" t="s">
         <v>181</v>
-      </c>
-      <c r="F99" t="s">
-        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4873,10 +4843,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>182</v>
+      </c>
+      <c r="F100" t="s">
         <v>183</v>
-      </c>
-      <c r="F100" t="s">
-        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -4902,10 +4872,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" t="s">
         <v>185</v>
-      </c>
-      <c r="F101" t="s">
-        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4931,10 +4901,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" t="s">
         <v>187</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4960,10 +4930,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" t="s">
         <v>189</v>
-      </c>
-      <c r="F103" t="s">
-        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4989,10 +4959,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
         <v>191</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
@@ -5018,10 +4988,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
         <v>39</v>
-      </c>
-      <c r="F105" t="s">
-        <v>40</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5047,10 +5017,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>192</v>
+      </c>
+      <c r="F106" t="s">
         <v>193</v>
-      </c>
-      <c r="F106" t="s">
-        <v>194</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5076,10 +5046,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>194</v>
+      </c>
+      <c r="F107" t="s">
         <v>195</v>
-      </c>
-      <c r="F107" t="s">
-        <v>196</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5105,10 +5075,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>196</v>
+      </c>
+      <c r="F108" t="s">
         <v>197</v>
-      </c>
-      <c r="F108" t="s">
-        <v>198</v>
       </c>
       <c r="G108" t="n">
         <v>8</v>
@@ -5134,10 +5104,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>40</v>
+      </c>
+      <c r="F109" t="s">
         <v>41</v>
-      </c>
-      <c r="F109" t="s">
-        <v>42</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5163,10 +5133,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F110" t="s">
         <v>199</v>
-      </c>
-      <c r="F110" t="s">
-        <v>200</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5192,10 +5162,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" t="s">
         <v>201</v>
-      </c>
-      <c r="F111" t="s">
-        <v>202</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5221,10 +5191,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>202</v>
+      </c>
+      <c r="F112" t="s">
         <v>203</v>
-      </c>
-      <c r="F112" t="s">
-        <v>204</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -5250,10 +5220,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5279,10 +5249,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F114" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5308,10 +5278,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F115" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G115" t="n">
         <v>10</v>
@@ -5337,10 +5307,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
         <v>45</v>
-      </c>
-      <c r="F116" t="s">
-        <v>46</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5366,10 +5336,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5395,10 +5365,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5424,10 +5394,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -5453,10 +5423,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5482,10 +5452,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5511,10 +5481,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>62</v>
+      </c>
+      <c r="F122" t="s">
         <v>63</v>
-      </c>
-      <c r="F122" t="s">
-        <v>64</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5540,10 +5510,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>64</v>
+      </c>
+      <c r="F123" t="s">
         <v>65</v>
-      </c>
-      <c r="F123" t="s">
-        <v>66</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5569,10 +5539,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5598,10 +5568,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G125" t="n">
         <v>5</v>
@@ -5627,10 +5597,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5656,10 +5626,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5685,10 +5655,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5714,10 +5684,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" t="s">
         <v>75</v>
-      </c>
-      <c r="F129" t="s">
-        <v>76</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -5743,10 +5713,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F130" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5772,10 +5742,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F131" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5801,10 +5771,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -5830,10 +5800,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F133" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5859,10 +5829,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F134" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5888,10 +5858,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F135" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5917,10 +5887,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F136" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5946,10 +5916,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>78</v>
+      </c>
+      <c r="F137" t="s">
         <v>79</v>
-      </c>
-      <c r="F137" t="s">
-        <v>80</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5975,10 +5945,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6004,10 +5974,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F139" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6033,10 +6003,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F140" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -6062,10 +6032,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>80</v>
+      </c>
+      <c r="F141" t="s">
         <v>81</v>
-      </c>
-      <c r="F141" t="s">
-        <v>82</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6091,10 +6061,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F142" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6120,10 +6090,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G143" t="n">
         <v>4</v>
@@ -6149,10 +6119,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>84</v>
+      </c>
+      <c r="F144" t="s">
         <v>85</v>
-      </c>
-      <c r="F144" t="s">
-        <v>86</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -6178,10 +6148,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F145" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6207,10 +6177,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F146" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6236,10 +6206,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F147" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -6265,10 +6235,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>86</v>
+      </c>
+      <c r="F148" t="s">
         <v>87</v>
-      </c>
-      <c r="F148" t="s">
-        <v>88</v>
       </c>
       <c r="G148" t="n">
         <v>4</v>
@@ -6294,10 +6264,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F149" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6323,10 +6293,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F150" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G150" t="n">
         <v>14</v>
@@ -6352,10 +6322,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F151" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6381,10 +6351,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F152" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6410,10 +6380,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F153" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -6439,10 +6409,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>90</v>
+      </c>
+      <c r="F154" t="s">
         <v>91</v>
-      </c>
-      <c r="F154" t="s">
-        <v>92</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6468,10 +6438,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F155" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6497,10 +6467,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F156" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6526,10 +6496,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F157" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -6555,10 +6525,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>68</v>
+      </c>
+      <c r="F158" t="s">
         <v>69</v>
-      </c>
-      <c r="F158" t="s">
-        <v>70</v>
       </c>
       <c r="G158" t="n">
         <v>4</v>
@@ -6584,10 +6554,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F159" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6613,10 +6583,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F160" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6642,10 +6612,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F161" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G161" t="n">
         <v>7</v>
@@ -6671,10 +6641,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>70</v>
+      </c>
+      <c r="F162" t="s">
         <v>71</v>
-      </c>
-      <c r="F162" t="s">
-        <v>72</v>
       </c>
       <c r="G162" t="n">
         <v>4</v>
@@ -6700,10 +6670,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F163" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6729,10 +6699,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F164" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6758,10 +6728,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F165" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G165" t="n">
         <v>6</v>
@@ -6787,10 +6757,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F166" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6816,10 +6786,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>72</v>
+      </c>
+      <c r="F167" t="s">
         <v>73</v>
-      </c>
-      <c r="F167" t="s">
-        <v>74</v>
       </c>
       <c r="G167" t="n">
         <v>6</v>
@@ -6845,10 +6815,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F168" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6874,10 +6844,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F169" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6903,10 +6873,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F170" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6932,10 +6902,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F171" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6961,10 +6931,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6990,10 +6960,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>22</v>
+      </c>
+      <c r="F173" t="s">
         <v>23</v>
-      </c>
-      <c r="F173" t="s">
-        <v>24</v>
       </c>
       <c r="G173" t="n">
         <v>5</v>
@@ -7019,10 +6989,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>18</v>
+      </c>
+      <c r="F174" t="s">
         <v>19</v>
-      </c>
-      <c r="F174" t="s">
-        <v>20</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7048,10 +7018,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" t="s">
         <v>21</v>
-      </c>
-      <c r="F175" t="s">
-        <v>22</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7077,10 +7047,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F176" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G176" t="n">
         <v>8</v>
@@ -7106,10 +7076,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F177" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7135,10 +7105,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" t="s">
         <v>23</v>
-      </c>
-      <c r="F178" t="s">
-        <v>24</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -7164,10 +7134,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F179" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7193,10 +7163,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F180" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7222,10 +7192,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F181" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7251,10 +7221,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F182" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7280,10 +7250,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F183" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G183" t="n">
         <v>6</v>
@@ -7309,10 +7279,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F184" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7338,10 +7308,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F185" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7367,10 +7337,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F186" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7396,10 +7366,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>24</v>
+      </c>
+      <c r="F187" t="s">
         <v>25</v>
-      </c>
-      <c r="F187" t="s">
-        <v>26</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7425,10 +7395,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F188" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7454,10 +7424,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F189" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7483,10 +7453,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F190" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7512,10 +7482,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F191" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G191" t="n">
         <v>8</v>
@@ -7541,10 +7511,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F192" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7570,10 +7540,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F193" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7599,10 +7569,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>94</v>
+      </c>
+      <c r="F194" t="s">
         <v>95</v>
-      </c>
-      <c r="F194" t="s">
-        <v>96</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7628,10 +7598,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>30</v>
+      </c>
+      <c r="F195" t="s">
         <v>31</v>
-      </c>
-      <c r="F195" t="s">
-        <v>32</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7657,10 +7627,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F196" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -7686,10 +7656,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F197" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7715,10 +7685,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F198" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7744,10 +7714,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F199" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7773,10 +7743,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F200" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7802,10 +7772,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F201" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7831,10 +7801,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F202" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7860,10 +7830,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F203" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7889,10 +7859,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F204" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G204" t="n">
         <v>3</v>
@@ -7918,10 +7888,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F205" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7947,10 +7917,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F206" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7976,10 +7946,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F207" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8005,10 +7975,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F208" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8034,10 +8004,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F209" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G209" t="n">
         <v>9</v>
@@ -8063,10 +8033,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F210" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8092,10 +8062,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F211" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8121,10 +8091,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F212" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8150,10 +8120,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F213" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8179,10 +8149,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F214" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8208,10 +8178,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F215" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8237,10 +8207,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F216" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8266,10 +8236,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F217" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8295,10 +8265,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F218" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8324,10 +8294,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F219" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8353,10 +8323,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F220" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8382,10 +8352,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F221" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8411,10 +8381,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F222" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8440,10 +8410,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F223" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8469,10 +8439,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F224" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G224" t="n">
         <v>4</v>
@@ -8498,10 +8468,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F225" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8527,10 +8497,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F226" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8556,10 +8526,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F227" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8585,10 +8555,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F228" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8614,10 +8584,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F229" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -8643,10 +8613,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F230" t="s">
         <v>47</v>
-      </c>
-      <c r="F230" t="s">
-        <v>48</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -8672,10 +8642,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F231" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8701,10 +8671,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>56</v>
+      </c>
+      <c r="F232" t="s">
         <v>57</v>
-      </c>
-      <c r="F232" t="s">
-        <v>58</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8730,10 +8700,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F233" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8759,10 +8729,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>178</v>
+      </c>
+      <c r="F234" t="s">
         <v>179</v>
-      </c>
-      <c r="F234" t="s">
-        <v>180</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8788,10 +8758,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F235" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8817,10 +8787,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F236" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -8846,10 +8816,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F237" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8875,10 +8845,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F238" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8904,10 +8874,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>56</v>
+      </c>
+      <c r="F239" t="s">
         <v>57</v>
-      </c>
-      <c r="F239" t="s">
-        <v>58</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8933,10 +8903,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F240" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -8962,13 +8932,13 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>50</v>
+      </c>
+      <c r="F241" t="s">
         <v>51</v>
       </c>
-      <c r="F241" t="s">
-        <v>52</v>
-      </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>4</v>
@@ -8991,10 +8961,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F242" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9020,10 +8990,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F243" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9049,10 +9019,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F244" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9078,10 +9048,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F245" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9107,10 +9077,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>76</v>
+      </c>
+      <c r="F246" t="s">
         <v>77</v>
-      </c>
-      <c r="F246" t="s">
-        <v>78</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9136,10 +9106,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F247" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9165,10 +9135,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F248" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9194,10 +9164,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F249" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9223,10 +9193,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F250" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9252,10 +9222,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F251" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9281,10 +9251,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F252" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9310,10 +9280,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F253" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9339,10 +9309,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F254" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9368,10 +9338,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F255" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -9397,10 +9367,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F256" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -9426,10 +9396,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F257" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9455,10 +9425,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F258" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -9484,10 +9454,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F259" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9513,10 +9483,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F260" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G260" t="n">
         <v>4</v>
@@ -9542,10 +9512,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F261" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9571,10 +9541,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F262" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G262" t="n">
         <v>3</v>
@@ -9600,10 +9570,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F263" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -9629,10 +9599,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F264" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9658,10 +9628,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F265" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9687,10 +9657,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F266" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9716,10 +9686,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F267" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9745,10 +9715,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F268" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G268" t="n">
         <v>13</v>
@@ -9774,10 +9744,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F269" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9803,10 +9773,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F270" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -9832,10 +9802,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F271" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9861,10 +9831,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F272" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9890,10 +9860,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F273" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9919,10 +9889,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F274" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9948,10 +9918,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F275" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9977,10 +9947,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F276" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10006,10 +9976,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F277" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10035,10 +10005,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F278" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G278" t="n">
         <v>4</v>
@@ -10064,10 +10034,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F279" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10093,10 +10063,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F280" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10122,10 +10092,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F281" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G281" t="n">
         <v>5</v>
@@ -10151,10 +10121,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>24</v>
+      </c>
+      <c r="F282" t="s">
         <v>25</v>
-      </c>
-      <c r="F282" t="s">
-        <v>26</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10180,10 +10150,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F283" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10209,10 +10179,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F284" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G284" t="n">
         <v>5</v>
@@ -10238,10 +10208,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F285" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10267,10 +10237,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F286" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10296,10 +10266,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F287" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G287" t="n">
         <v>4</v>
@@ -10325,10 +10295,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F288" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G288" t="n">
         <v>7</v>
@@ -10354,10 +10324,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>32</v>
+      </c>
+      <c r="F289" t="s">
         <v>33</v>
-      </c>
-      <c r="F289" t="s">
-        <v>34</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10383,10 +10353,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>38</v>
+      </c>
+      <c r="F290" t="s">
         <v>39</v>
-      </c>
-      <c r="F290" t="s">
-        <v>40</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10412,10 +10382,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>138</v>
+      </c>
+      <c r="F291" t="s">
         <v>139</v>
-      </c>
-      <c r="F291" t="s">
-        <v>140</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10441,10 +10411,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F292" t="s">
-        <v>498</v>
+        <v>53</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10470,10 +10440,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F293" t="s">
-        <v>500</v>
+        <v>35</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10499,10 +10469,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F294" t="s">
-        <v>502</v>
+        <v>147</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10528,10 +10498,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>54</v>
+      </c>
+      <c r="F295" t="s">
         <v>55</v>
-      </c>
-      <c r="F295" t="s">
-        <v>56</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10586,10 +10556,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>42</v>
+      </c>
+      <c r="F297" t="s">
         <v>43</v>
-      </c>
-      <c r="F297" t="s">
-        <v>44</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10615,10 +10585,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F298" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10644,10 +10614,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>186</v>
+      </c>
+      <c r="F299" t="s">
         <v>187</v>
-      </c>
-      <c r="F299" t="s">
-        <v>188</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10673,10 +10643,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F300" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10702,10 +10672,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>44</v>
+      </c>
+      <c r="F301" t="s">
         <v>45</v>
-      </c>
-      <c r="F301" t="s">
-        <v>46</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10731,10 +10701,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>50</v>
+      </c>
+      <c r="F302" t="s">
         <v>51</v>
-      </c>
-      <c r="F302" t="s">
-        <v>52</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10760,10 +10730,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>178</v>
+      </c>
+      <c r="F303" t="s">
         <v>179</v>
-      </c>
-      <c r="F303" t="s">
-        <v>180</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10789,10 +10759,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F304" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G304" t="n">
         <v>6</v>
@@ -10818,10 +10788,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F305" t="s">
-        <v>510</v>
+        <v>61</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -10847,10 +10817,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>84</v>
+      </c>
+      <c r="F306" t="s">
         <v>85</v>
-      </c>
-      <c r="F306" t="s">
-        <v>86</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -10876,10 +10846,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F307" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -10905,10 +10875,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>70</v>
+      </c>
+      <c r="F308" t="s">
         <v>71</v>
-      </c>
-      <c r="F308" t="s">
-        <v>72</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -10934,10 +10904,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F309" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -10963,10 +10933,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F310" t="s">
-        <v>514</v>
+        <v>65</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -10992,10 +10962,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F311" t="s">
-        <v>516</v>
+        <v>14</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11021,10 +10991,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>78</v>
+      </c>
+      <c r="F312" t="s">
         <v>79</v>
-      </c>
-      <c r="F312" t="s">
-        <v>80</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11050,10 +11020,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F313" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11079,10 +11049,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>72</v>
+      </c>
+      <c r="F314" t="s">
         <v>73</v>
-      </c>
-      <c r="F314" t="s">
-        <v>74</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11108,10 +11078,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>80</v>
+      </c>
+      <c r="F315" t="s">
         <v>81</v>
-      </c>
-      <c r="F315" t="s">
-        <v>82</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11137,10 +11107,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F316" t="s">
-        <v>518</v>
+        <v>91</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11166,10 +11136,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>24</v>
+      </c>
+      <c r="F317" t="s">
         <v>25</v>
-      </c>
-      <c r="F317" t="s">
-        <v>26</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11195,10 +11165,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F318" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11224,10 +11194,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F319" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11253,10 +11223,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F320" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11282,10 +11252,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F321" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11311,10 +11281,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F322" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11340,10 +11310,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F323" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -11369,10 +11339,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F324" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11398,10 +11368,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F325" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11427,10 +11397,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F326" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11456,10 +11426,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F327" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11485,10 +11455,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F328" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G328" t="n">
         <v>23</v>
@@ -11514,10 +11484,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F329" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
